--- a/resultados/vazao_transferencias/vazao_transferencia_cantareira.xlsx
+++ b/resultados/vazao_transferencias/vazao_transferencia_cantareira.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L184"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,17 +412,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Vazão captada da ETA</t>
+          <t>Vazão captada da ETA (m³/s)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Transferência</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Vazão de transferência</t>
+          <t>Q PS-SC</t>
         </is>
       </c>
     </row>
@@ -475,7 +470,7 @@
           <t>32,25</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -530,7 +525,7 @@
           <t>32,62</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -585,7 +580,7 @@
           <t>33,98</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -640,7 +635,7 @@
           <t>33,62</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -695,7 +690,7 @@
           <t>32,22</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -750,7 +745,7 @@
           <t>33,64</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -805,7 +800,7 @@
           <t>33,12</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -860,7 +855,7 @@
           <t>33,24</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -915,7 +910,7 @@
           <t>32,26</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -970,7 +965,7 @@
           <t>31,57</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1025,7 +1020,7 @@
           <t>34,55</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1080,7 +1075,7 @@
           <t>32,46</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1135,7 +1130,7 @@
           <t>31,85</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1190,7 +1185,7 @@
           <t>33,09</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1245,7 +1240,7 @@
           <t>33,29</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1300,7 +1295,7 @@
           <t>33,78</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1355,7 +1350,7 @@
           <t>33,85</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1410,7 +1405,7 @@
           <t>33,03</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1465,7 +1460,7 @@
           <t>33,7</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1520,7 +1515,7 @@
           <t>35,67</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1575,7 +1570,7 @@
           <t>34,66</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1630,7 +1625,7 @@
           <t>29,88</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1685,7 +1680,7 @@
           <t>32,39</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1740,7 +1735,7 @@
           <t>30,72</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1795,7 +1790,7 @@
           <t>32,59</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1850,7 +1845,7 @@
           <t>33,96</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1905,7 +1900,7 @@
           <t>32,37</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1960,7 +1955,7 @@
           <t>28,62</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2015,7 +2010,7 @@
           <t>34,18</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2070,7 +2065,7 @@
           <t>35,34</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2125,7 +2120,7 @@
           <t>33,85</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2180,7 +2175,7 @@
           <t>34,8</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2235,7 +2230,7 @@
           <t>32,54</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2290,7 +2285,7 @@
           <t>35,02</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2345,7 +2340,7 @@
           <t>34,35</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2400,7 +2395,7 @@
           <t>28,71</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2455,7 +2450,7 @@
           <t>34,27</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2510,7 +2505,7 @@
           <t>33,94</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2565,7 +2560,7 @@
           <t>30,68</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2620,7 +2615,7 @@
           <t>33,43</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2675,7 +2670,7 @@
           <t>31,93</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2730,7 +2725,7 @@
           <t>34,09</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2785,7 +2780,7 @@
           <t>34,06</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2840,7 +2835,7 @@
           <t>33,87</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2895,7 +2890,7 @@
           <t>31,61</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2950,7 +2945,7 @@
           <t>32,84</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3005,7 +3000,7 @@
           <t>34,71</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3060,7 +3055,7 @@
           <t>29,7</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3115,7 +3110,7 @@
           <t>33,77</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3170,7 +3165,7 @@
           <t>30,59</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3225,7 +3220,7 @@
           <t>26,28</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3280,7 +3275,7 @@
           <t>24,21</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3335,7 +3330,7 @@
           <t>23,27</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3390,7 +3385,7 @@
           <t>21,76</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3445,7 +3440,7 @@
           <t>21,56</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3500,7 +3495,7 @@
           <t>21,01</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3555,7 +3550,7 @@
           <t>22,5</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3610,7 +3605,7 @@
           <t>18,95</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3665,7 +3660,7 @@
           <t>18,07</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3720,7 +3715,7 @@
           <t>17,88</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3775,7 +3770,7 @@
           <t>14,68</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3830,7 +3825,7 @@
           <t>14,44</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3885,7 +3880,7 @@
           <t>14,29</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3940,7 +3935,7 @@
           <t>14,07</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3995,7 +3990,7 @@
           <t>14,05</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4050,7 +4045,7 @@
           <t>12,68</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4105,7 +4100,7 @@
           <t>14,42</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4160,7 +4155,7 @@
           <t>14,19</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4215,7 +4210,7 @@
           <t>13,33</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4270,7 +4265,7 @@
           <t>13,82</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4325,7 +4320,7 @@
           <t>13,07</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4380,7 +4375,7 @@
           <t>16,01</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4435,7 +4430,7 @@
           <t>15,89</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4490,7 +4485,7 @@
           <t>20,36</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4545,7 +4540,7 @@
           <t>21,83</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4600,7 +4595,7 @@
           <t>22,48</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4655,7 +4650,7 @@
           <t>20,22</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4710,7 +4705,7 @@
           <t>19,41</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4765,7 +4760,7 @@
           <t>21,48</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4820,7 +4815,7 @@
           <t>22,97</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4875,7 +4870,7 @@
           <t>23,92</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4930,7 +4925,7 @@
           <t>21,39</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4985,7 +4980,7 @@
           <t>23,61</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5040,7 +5035,7 @@
           <t>24,95</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5095,7 +5090,7 @@
           <t>25,79</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5150,7 +5145,7 @@
           <t>24,16</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5205,7 +5200,7 @@
           <t>24,61</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5260,7 +5255,7 @@
           <t>23,91</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5315,7 +5310,7 @@
           <t>23,66</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5370,7 +5365,7 @@
           <t>24,75</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5425,7 +5420,7 @@
           <t>24,35</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5480,7 +5475,7 @@
           <t>25,33</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5535,7 +5530,7 @@
           <t>25,41</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5590,7 +5585,7 @@
           <t>24,24</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5645,7 +5640,7 @@
           <t>25,68</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5700,7 +5695,7 @@
           <t>23,2</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5757,11 +5752,6 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -5817,11 +5807,6 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -5877,11 +5862,6 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -5937,11 +5917,6 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -5997,11 +5972,6 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
           <t>8,64</t>
         </is>
       </c>
@@ -6057,11 +6027,6 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
           <t>4,07</t>
         </is>
       </c>
@@ -6117,11 +6082,6 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
           <t>8,12</t>
         </is>
       </c>
@@ -6177,11 +6137,6 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
           <t>8</t>
         </is>
       </c>
@@ -6237,11 +6192,6 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
           <t>7,86</t>
         </is>
       </c>
@@ -6297,11 +6247,6 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
           <t>7,651</t>
         </is>
       </c>
@@ -6357,11 +6302,6 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
           <t>6,489</t>
         </is>
       </c>
@@ -6417,11 +6357,6 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
           <t>5,217</t>
         </is>
       </c>
@@ -6477,11 +6412,6 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
           <t>5,22</t>
         </is>
       </c>
@@ -6537,11 +6467,6 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
           <t>5,465</t>
         </is>
       </c>
@@ -6597,11 +6522,6 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
           <t>5,435</t>
         </is>
       </c>
@@ -6657,11 +6577,6 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
           <t>5,36</t>
         </is>
       </c>
@@ -6717,11 +6632,6 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
           <t>3,68</t>
         </is>
       </c>
@@ -6777,11 +6687,6 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -6837,11 +6742,6 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
           <t>5,29</t>
         </is>
       </c>
@@ -6897,11 +6797,6 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
           <t>5,114</t>
         </is>
       </c>
@@ -6957,11 +6852,6 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
           <t>3,538</t>
         </is>
       </c>
@@ -7017,11 +6907,6 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
           <t>5,104</t>
         </is>
       </c>
@@ -7077,11 +6962,6 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
           <t>4,553</t>
         </is>
       </c>
@@ -7137,11 +7017,6 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
           <t>5,059</t>
         </is>
       </c>
@@ -7197,11 +7072,6 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
           <t>5,007</t>
         </is>
       </c>
@@ -7257,11 +7127,6 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
           <t>5,116</t>
         </is>
       </c>
@@ -7317,11 +7182,6 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -7377,11 +7237,6 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -7437,11 +7292,6 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
           <t>8,162</t>
         </is>
       </c>
@@ -7497,11 +7347,6 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
           <t>8,052</t>
         </is>
       </c>
@@ -7557,11 +7402,6 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
           <t>7,959</t>
         </is>
       </c>
@@ -7617,11 +7457,6 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
           <t>7,785</t>
         </is>
       </c>
@@ -7677,11 +7512,6 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
           <t>7,606</t>
         </is>
       </c>
@@ -7737,11 +7567,6 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
           <t>4,947</t>
         </is>
       </c>
@@ -7797,11 +7622,6 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
           <t>2,56</t>
         </is>
       </c>
@@ -7857,11 +7677,6 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -7917,11 +7732,6 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
           <t>8,1</t>
         </is>
       </c>
@@ -7977,11 +7787,6 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
           <t>7,84</t>
         </is>
       </c>
@@ -8037,11 +7842,6 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
           <t>7,795</t>
         </is>
       </c>
@@ -8097,11 +7897,6 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
           <t>7,663</t>
         </is>
       </c>
@@ -8157,11 +7952,6 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
           <t>7,63</t>
         </is>
       </c>
@@ -8217,11 +8007,6 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
           <t>7,626</t>
         </is>
       </c>
@@ -8277,11 +8062,6 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
           <t>7,616</t>
         </is>
       </c>
@@ -8337,11 +8117,6 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
           <t>7,622</t>
         </is>
       </c>
@@ -8397,11 +8172,6 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -8457,11 +8227,6 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
           <t>7,721</t>
         </is>
       </c>
@@ -8517,11 +8282,6 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
           <t>7,504</t>
         </is>
       </c>
@@ -8577,11 +8337,6 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -8637,11 +8392,6 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -8697,11 +8447,6 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -8757,11 +8502,6 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -8817,11 +8557,6 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
           <t>7,58</t>
         </is>
       </c>
@@ -8877,11 +8612,6 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
           <t>7,576</t>
         </is>
       </c>
@@ -8937,11 +8667,6 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
           <t>7,58</t>
         </is>
       </c>
@@ -8997,11 +8722,6 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
           <t>7,528</t>
         </is>
       </c>
@@ -9057,11 +8777,6 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
           <t>7,333</t>
         </is>
       </c>
@@ -9117,11 +8832,6 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
           <t>7,277</t>
         </is>
       </c>
@@ -9177,11 +8887,6 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
           <t>7,21</t>
         </is>
       </c>
@@ -9237,11 +8942,6 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
           <t>7,43</t>
         </is>
       </c>
@@ -9297,11 +8997,6 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -9357,11 +9052,6 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -9417,11 +9107,6 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -9477,11 +9162,6 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -9537,11 +9217,6 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -9597,11 +9272,6 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -9657,11 +9327,6 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -9717,11 +9382,6 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -9777,11 +9437,6 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -9837,11 +9492,6 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -9897,11 +9547,6 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -9957,11 +9602,6 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -10017,11 +9657,6 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -10077,11 +9712,6 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -10137,11 +9767,6 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -10197,11 +9822,6 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -10257,11 +9877,6 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -10317,11 +9932,6 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
           <t>7,75</t>
         </is>
       </c>
@@ -10377,11 +9987,6 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
           <t>7,923</t>
         </is>
       </c>
@@ -10437,11 +10042,6 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
           <t>7,709</t>
         </is>
       </c>
@@ -10497,11 +10097,6 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
           <t>7,76</t>
         </is>
       </c>
@@ -10557,11 +10152,6 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
           <t>7,67</t>
         </is>
       </c>
@@ -10617,11 +10207,6 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
           <t>7,52</t>
         </is>
       </c>
@@ -10677,11 +10262,6 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
           <t>7,44</t>
         </is>
       </c>
@@ -10737,11 +10317,6 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
           <t>7,435</t>
         </is>
       </c>
@@ -10797,11 +10372,6 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
           <t>7,366</t>
         </is>
       </c>
@@ -10857,18 +10427,13 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
           <t>5,468</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -10877,12 +10442,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>59,74</t>
+          <t>57,96</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>32,52</t>
+          <t>25,39</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -10892,12 +10457,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105,95</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -10907,22 +10472,17 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>30,07</t>
+          <t>29,55</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Q PS-SC</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>7,13</t>
+          <t>0</t>
         </is>
       </c>
     </row>
